--- a/Code/Results/Cases/Case_8_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.460400605703683</v>
+        <v>2.385610013948792</v>
       </c>
       <c r="C2">
-        <v>0.7953854695472842</v>
+        <v>0.843947940431832</v>
       </c>
       <c r="D2">
-        <v>0.0364537138381138</v>
+        <v>0.03907604189279112</v>
       </c>
       <c r="E2">
-        <v>1.366513501383537</v>
+        <v>1.364882972933827</v>
       </c>
       <c r="F2">
-        <v>0.6105386638488142</v>
+        <v>0.5799975069626768</v>
       </c>
       <c r="G2">
-        <v>0.0007858853178789836</v>
+        <v>0.001955039848878237</v>
       </c>
       <c r="H2">
-        <v>0.01256332860646836</v>
+        <v>0.01238064822611273</v>
       </c>
       <c r="I2">
-        <v>0.007312373034583874</v>
+        <v>0.007186626155163189</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.23619785468345</v>
+        <v>0.2154015209025104</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1368381758788715</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04335525800666851</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7425773491795269</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.769287764644503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7695423487732995</v>
+      </c>
+      <c r="S2">
+        <v>1.66557600199306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.142510768365923</v>
+        <v>2.085334039886618</v>
       </c>
       <c r="C3">
-        <v>0.6982434912220867</v>
+        <v>0.7371573814645842</v>
       </c>
       <c r="D3">
-        <v>0.0326564758748944</v>
+        <v>0.03447887366314717</v>
       </c>
       <c r="E3">
-        <v>1.191890762194561</v>
+        <v>1.192427703753395</v>
       </c>
       <c r="F3">
-        <v>0.5536773600823111</v>
+        <v>0.5275368695776663</v>
       </c>
       <c r="G3">
-        <v>0.0007892323332659464</v>
+        <v>0.0008284714678043863</v>
       </c>
       <c r="H3">
-        <v>0.009193754753799299</v>
+        <v>0.009248758747080268</v>
       </c>
       <c r="I3">
-        <v>0.005247679946802197</v>
+        <v>0.005502611827854498</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2315482110499865</v>
+        <v>0.2125815682358407</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1407335247436805</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03827928820367354</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7423748102724304</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.625073748639096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7596838804262305</v>
+      </c>
+      <c r="S3">
+        <v>1.534460752933285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.946642536430147</v>
+        <v>1.899881174419477</v>
       </c>
       <c r="C4">
-        <v>0.6389096655660751</v>
+        <v>0.6720303303665958</v>
       </c>
       <c r="D4">
-        <v>0.0303226119344373</v>
+        <v>0.03166484183955731</v>
       </c>
       <c r="E4">
-        <v>1.084917969195232</v>
+        <v>1.086680668826716</v>
       </c>
       <c r="F4">
-        <v>0.5192879490362756</v>
+        <v>0.4955610139595876</v>
       </c>
       <c r="G4">
-        <v>0.0007913566400806373</v>
+        <v>0.0003608498771354926</v>
       </c>
       <c r="H4">
-        <v>0.007325591882551552</v>
+        <v>0.00749414202295956</v>
       </c>
       <c r="I4">
-        <v>0.004148845326127582</v>
+        <v>0.004585911959616329</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2289373696560943</v>
+        <v>0.2109434656068387</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1431833758216428</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03568293638019782</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7429366814972482</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.538039983418912</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7543448983012482</v>
+      </c>
+      <c r="S4">
+        <v>1.454489220811297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.865486501319054</v>
+        <v>1.822896621191575</v>
       </c>
       <c r="C5">
-        <v>0.6155845841441305</v>
+        <v>0.6464024578061185</v>
       </c>
       <c r="D5">
-        <v>0.02940883605579359</v>
+        <v>0.03055934500384438</v>
       </c>
       <c r="E5">
-        <v>1.041350736136494</v>
+        <v>1.043592077186702</v>
       </c>
       <c r="F5">
-        <v>0.504908656413285</v>
+        <v>0.4821075058032349</v>
       </c>
       <c r="G5">
-        <v>0.0007922448789496402</v>
+        <v>0.000222154838814298</v>
       </c>
       <c r="H5">
-        <v>0.006609079782660898</v>
+        <v>0.006816615585979402</v>
       </c>
       <c r="I5">
-        <v>0.003793450225133554</v>
+        <v>0.00430523759354795</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2276056936720074</v>
+        <v>0.2099921703292864</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1440397269552847</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03467844098157435</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7437240554429536</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.50125746655587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7527618392403426</v>
+      </c>
+      <c r="S5">
+        <v>1.420395170754233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.850582338169033</v>
+        <v>1.808706367522404</v>
       </c>
       <c r="C6">
-        <v>0.6126785863620228</v>
+        <v>0.6431451690723122</v>
       </c>
       <c r="D6">
-        <v>0.02930374235666733</v>
+        <v>0.03042412468108679</v>
       </c>
       <c r="E6">
-        <v>1.034097532902109</v>
+        <v>1.036419718403224</v>
       </c>
       <c r="F6">
-        <v>0.5019348391375829</v>
+        <v>0.4792968664423327</v>
       </c>
       <c r="G6">
-        <v>0.000792399405653732</v>
+        <v>0.0002014233319772296</v>
       </c>
       <c r="H6">
-        <v>0.006490880835890889</v>
+        <v>0.006704687488627681</v>
       </c>
       <c r="I6">
-        <v>0.003809185701810769</v>
+        <v>0.004349385715429754</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2269908569534032</v>
+        <v>0.2094633669764647</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1439923366240095</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03442645700702585</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7443461422702597</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.493138268565076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7530232189724728</v>
+      </c>
+      <c r="S6">
+        <v>1.412763780761651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.94166390509136</v>
+        <v>1.89059097716364</v>
       </c>
       <c r="C7">
-        <v>0.6412326952481919</v>
+        <v>0.6712125321552378</v>
       </c>
       <c r="D7">
-        <v>0.03043820387362928</v>
+        <v>0.03206682950010986</v>
       </c>
       <c r="E7">
-        <v>1.08427273053303</v>
+        <v>1.085923230744157</v>
       </c>
       <c r="F7">
-        <v>0.5174711435561932</v>
+        <v>0.4904782247188351</v>
       </c>
       <c r="G7">
-        <v>0.0007913845370548928</v>
+        <v>0.0004587879779631709</v>
       </c>
       <c r="H7">
-        <v>0.007310260946389424</v>
+        <v>0.007467965358414985</v>
       </c>
       <c r="I7">
-        <v>0.00432703861873307</v>
+        <v>0.004792331495766078</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2278339529236568</v>
+        <v>0.208755360124254</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1421080184618759</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03509702626240596</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7442755214825567</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.531986011078885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7574326037257464</v>
+      </c>
+      <c r="S7">
+        <v>1.437352226723817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.345728651001878</v>
+        <v>2.262293666207256</v>
       </c>
       <c r="C8">
-        <v>0.7653441232050966</v>
+        <v>0.7999107318547374</v>
       </c>
       <c r="D8">
-        <v>0.03531599249926387</v>
+        <v>0.0386366748032998</v>
       </c>
       <c r="E8">
-        <v>1.306161685927364</v>
+        <v>1.304884118616457</v>
       </c>
       <c r="F8">
-        <v>0.5886590848842843</v>
+        <v>0.5487324252082146</v>
       </c>
       <c r="G8">
-        <v>0.0007870450880283486</v>
+        <v>0.002585152699526638</v>
       </c>
       <c r="H8">
-        <v>0.01134873213562973</v>
+        <v>0.01120965512721123</v>
       </c>
       <c r="I8">
-        <v>0.006778792092937636</v>
+        <v>0.006789151537030413</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2331050811748554</v>
+        <v>0.2092859839837722</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.135833163976443</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03992379435141302</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7441831199795672</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.71184282369515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7738669725208425</v>
+      </c>
+      <c r="S8">
+        <v>1.575716282299851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.140205965233577</v>
+        <v>3.005761916660731</v>
       </c>
       <c r="C9">
-        <v>1.006924771064348</v>
+        <v>1.062802920565758</v>
       </c>
       <c r="D9">
-        <v>0.04464005662362069</v>
+        <v>0.05031612707215771</v>
       </c>
       <c r="E9">
-        <v>1.744300754433212</v>
+        <v>1.736703763228306</v>
       </c>
       <c r="F9">
-        <v>0.7359246914980986</v>
+        <v>0.6800374190237193</v>
       </c>
       <c r="G9">
-        <v>0.0007790454534302688</v>
+        <v>0.006867026244614216</v>
       </c>
       <c r="H9">
-        <v>0.02106855351668124</v>
+        <v>0.02009552029693817</v>
       </c>
       <c r="I9">
-        <v>0.01281588515969023</v>
+        <v>0.0114506688557956</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.247515389024052</v>
+        <v>0.2171502353684716</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.126906497505562</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05523409451750894</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7472446720273993</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.088260997834908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8031418190416275</v>
+      </c>
+      <c r="S9">
+        <v>1.902658340538665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.704815211063192</v>
+        <v>3.50526775585513</v>
       </c>
       <c r="C10">
-        <v>1.179783746319913</v>
+        <v>1.231077581311297</v>
       </c>
       <c r="D10">
-        <v>0.05244604119358343</v>
+        <v>0.06176840983636822</v>
       </c>
       <c r="E10">
-        <v>1.966646681215735</v>
+        <v>1.95322031915029</v>
       </c>
       <c r="F10">
-        <v>0.8370513687517018</v>
+        <v>0.7492546970381113</v>
       </c>
       <c r="G10">
-        <v>0.0007736542615097595</v>
+        <v>0.01767858197965744</v>
       </c>
       <c r="H10">
-        <v>0.02881485578815868</v>
+        <v>0.02694134519522873</v>
       </c>
       <c r="I10">
-        <v>0.01831414780180918</v>
+        <v>0.01549378873287477</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2555565269031703</v>
+        <v>0.2138867556938564</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1172043556157689</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06512855038752008</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7599338041140555</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.339075784644962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8470032353017274</v>
+      </c>
+      <c r="S10">
+        <v>2.04962097096535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.824894222061403</v>
+        <v>3.565469348815384</v>
       </c>
       <c r="C11">
-        <v>1.189570173066102</v>
+        <v>1.196889224096481</v>
       </c>
       <c r="D11">
-        <v>0.06442749436780559</v>
+        <v>0.07941389991390935</v>
       </c>
       <c r="E11">
-        <v>1.275310851790465</v>
+        <v>1.262335445974912</v>
       </c>
       <c r="F11">
-        <v>0.7951906232267874</v>
+        <v>0.6709344361046163</v>
       </c>
       <c r="G11">
-        <v>0.0007726555509607417</v>
+        <v>0.05092694823315114</v>
       </c>
       <c r="H11">
-        <v>0.0439705055868771</v>
+        <v>0.0419185363208463</v>
       </c>
       <c r="I11">
-        <v>0.01995258936281008</v>
+        <v>0.01662716403547737</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2276455368320249</v>
+        <v>0.1781512071080407</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1013730827120636</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05511072293669272</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8230043987186946</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.158025257754645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9487921926379954</v>
+      </c>
+      <c r="S11">
+        <v>1.754295995857944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.812252223242183</v>
+        <v>3.532993639261292</v>
       </c>
       <c r="C12">
-        <v>1.157433121508632</v>
+        <v>1.141571574173668</v>
       </c>
       <c r="D12">
-        <v>0.07336887117276092</v>
+        <v>0.09149490999653409</v>
       </c>
       <c r="E12">
-        <v>0.7774624718814636</v>
+        <v>0.7664218398004579</v>
       </c>
       <c r="F12">
-        <v>0.7417344438327973</v>
+        <v>0.6068897947228677</v>
       </c>
       <c r="G12">
-        <v>0.0007727589760644592</v>
+        <v>0.07467163612408712</v>
       </c>
       <c r="H12">
-        <v>0.07964205780854883</v>
+        <v>0.07766652773918281</v>
       </c>
       <c r="I12">
-        <v>0.01991331253082596</v>
+        <v>0.01648612837345986</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2050003072438784</v>
+        <v>0.1558760222694175</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09285400758770024</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04714154853212449</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8750090251544691</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.966135811064163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.020647465866958</v>
+      </c>
+      <c r="S12">
+        <v>1.534541891829605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.690863356280545</v>
+        <v>3.433094565146519</v>
       </c>
       <c r="C13">
-        <v>1.095773205348962</v>
+        <v>1.078396819687811</v>
       </c>
       <c r="D13">
-        <v>0.08057398444427122</v>
+        <v>0.09851195829460835</v>
       </c>
       <c r="E13">
-        <v>0.3997911599413797</v>
+        <v>0.3914115825321929</v>
       </c>
       <c r="F13">
-        <v>0.6738854166990507</v>
+        <v>0.5531834652918874</v>
       </c>
       <c r="G13">
-        <v>0.0007737327086354583</v>
+        <v>0.06811656976312719</v>
       </c>
       <c r="H13">
-        <v>0.1324150620429094</v>
+        <v>0.1307022761770185</v>
       </c>
       <c r="I13">
-        <v>0.01885346182304026</v>
+        <v>0.01575025133983399</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1833745415284689</v>
+        <v>0.1418350319548871</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08845695490737349</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04052178952744789</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9226013395402362</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.746727838842986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.065299093748237</v>
+      </c>
+      <c r="S13">
+        <v>1.366652273280295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.556166597704248</v>
+        <v>3.331018882730007</v>
       </c>
       <c r="C14">
-        <v>1.040571187798832</v>
+        <v>1.030870192752161</v>
       </c>
       <c r="D14">
-        <v>0.08489933108194236</v>
+        <v>0.1010518251297796</v>
       </c>
       <c r="E14">
-        <v>0.2083291383890824</v>
+        <v>0.2018272999953368</v>
       </c>
       <c r="F14">
-        <v>0.620066620526508</v>
+        <v>0.5188616097681233</v>
       </c>
       <c r="G14">
-        <v>0.0007747938369655657</v>
+        <v>0.05096153116105739</v>
       </c>
       <c r="H14">
-        <v>0.1798071584099148</v>
+        <v>0.1783345507947161</v>
       </c>
       <c r="I14">
-        <v>0.01776153784499623</v>
+        <v>0.01506653324933183</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1687061534141137</v>
+        <v>0.1349377025288057</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08680937043288139</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03634703112841464</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9544477100392328</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.581599038642651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.084020771262388</v>
+      </c>
+      <c r="S14">
+        <v>1.267086992544023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.498992192203445</v>
+        <v>3.289425707837324</v>
       </c>
       <c r="C15">
-        <v>1.021894346067484</v>
+        <v>1.017690951207612</v>
       </c>
       <c r="D15">
-        <v>0.08554640924747758</v>
+        <v>0.1005616134230678</v>
       </c>
       <c r="E15">
-        <v>0.1707004863552086</v>
+        <v>0.1647597595075787</v>
       </c>
       <c r="F15">
-        <v>0.603365912267428</v>
+        <v>0.5110394232196356</v>
       </c>
       <c r="G15">
-        <v>0.0007752638971125148</v>
+        <v>0.04238375431832964</v>
       </c>
       <c r="H15">
-        <v>0.191663601752893</v>
+        <v>0.1902885232754414</v>
       </c>
       <c r="I15">
-        <v>0.01736513476738111</v>
+        <v>0.01487593686045585</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1649467970997271</v>
+        <v>0.1341775918407215</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08692376296020754</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03535077268724329</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.961394044211346</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.533431365849481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.083108607624027</v>
+      </c>
+      <c r="S15">
+        <v>1.247606563014244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.281785169700299</v>
+        <v>3.136250331469569</v>
       </c>
       <c r="C16">
-        <v>0.9635048733018152</v>
+        <v>0.9891021469653651</v>
       </c>
       <c r="D16">
-        <v>0.08050541740093564</v>
+        <v>0.08988659065750682</v>
       </c>
       <c r="E16">
-        <v>0.1667784756497426</v>
+        <v>0.1622406089397685</v>
       </c>
       <c r="F16">
-        <v>0.573977270060837</v>
+        <v>0.5167151864294084</v>
       </c>
       <c r="G16">
-        <v>0.000777343791900121</v>
+        <v>0.01380292480890155</v>
       </c>
       <c r="H16">
-        <v>0.1765370117907281</v>
+        <v>0.1755527788698288</v>
       </c>
       <c r="I16">
-        <v>0.0153425500890636</v>
+        <v>0.01364202068174958</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1654323242876785</v>
+        <v>0.1441345390032005</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0925335077125915</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03583495762339517</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9438356709990643</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.471317766097059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.027340265372999</v>
+      </c>
+      <c r="S16">
+        <v>1.294605520440342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.18630115602889</v>
+        <v>3.065645712791252</v>
       </c>
       <c r="C17">
-        <v>0.9478612164914182</v>
+        <v>0.988042204308698</v>
       </c>
       <c r="D17">
-        <v>0.07435129211780378</v>
+        <v>0.08132138055807303</v>
       </c>
       <c r="E17">
-        <v>0.2516831164511473</v>
+        <v>0.2474625980297773</v>
       </c>
       <c r="F17">
-        <v>0.5797381582264407</v>
+        <v>0.5358396425528653</v>
       </c>
       <c r="G17">
-        <v>0.0007783952390191264</v>
+        <v>0.007655026992915204</v>
       </c>
       <c r="H17">
-        <v>0.13787907560679</v>
+        <v>0.1370586914133014</v>
       </c>
       <c r="I17">
-        <v>0.0143870714602885</v>
+        <v>0.0130473603665866</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1734653921502058</v>
+        <v>0.154923418113615</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09788765029151847</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03794211370276024</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9138861088856061</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.510125311558483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.9809215230022659</v>
+      </c>
+      <c r="S17">
+        <v>1.373981070650757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.18761927229059</v>
+        <v>3.071580612601394</v>
       </c>
       <c r="C18">
-        <v>0.9654178423905933</v>
+        <v>1.015762922933675</v>
       </c>
       <c r="D18">
-        <v>0.06666979992722588</v>
+        <v>0.07267752337478584</v>
       </c>
       <c r="E18">
-        <v>0.4861726129482307</v>
+        <v>0.4814118112329666</v>
       </c>
       <c r="F18">
-        <v>0.6180690619181135</v>
+        <v>0.5768558799809753</v>
       </c>
       <c r="G18">
-        <v>0.0007785828929417163</v>
+        <v>0.006412666961688185</v>
       </c>
       <c r="H18">
-        <v>0.08582574360185902</v>
+        <v>0.08501907533983655</v>
       </c>
       <c r="I18">
-        <v>0.01400173072257527</v>
+        <v>0.01270495323640297</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1901009357464574</v>
+        <v>0.1704751107172768</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1045845639780616</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04277008445575348</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8696949126130278</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.647138835456587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9303652195331296</v>
+      </c>
+      <c r="S18">
+        <v>1.517389357210305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.259778683399588</v>
+        <v>3.136009515094202</v>
       </c>
       <c r="C19">
-        <v>1.014402601027967</v>
+        <v>1.073697378379734</v>
       </c>
       <c r="D19">
-        <v>0.05900721771833872</v>
+        <v>0.06483042361206515</v>
       </c>
       <c r="E19">
-        <v>0.9221857263264468</v>
+        <v>0.9159723653970104</v>
       </c>
       <c r="F19">
-        <v>0.6784896002156131</v>
+        <v>0.6336585696811809</v>
       </c>
       <c r="G19">
-        <v>0.0007779681585505238</v>
+        <v>0.006670798566958958</v>
       </c>
       <c r="H19">
-        <v>0.04343742965541963</v>
+        <v>0.04250449866122352</v>
       </c>
       <c r="I19">
-        <v>0.01461864056892725</v>
+        <v>0.01322768278050201</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2117718579881718</v>
+        <v>0.1887036813181524</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1117830200951353</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04948872033804363</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8227285552219286</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.850847492958906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8828196141328704</v>
+      </c>
+      <c r="S19">
+        <v>1.70709198948785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.543588540051132</v>
+        <v>3.378419971271398</v>
       </c>
       <c r="C20">
-        <v>1.142348133545454</v>
+        <v>1.207127308248005</v>
       </c>
       <c r="D20">
-        <v>0.05084687931600484</v>
+        <v>0.05809990059956505</v>
       </c>
       <c r="E20">
-        <v>1.903635622052889</v>
+        <v>1.892332796186693</v>
       </c>
       <c r="F20">
-        <v>0.8046955630541675</v>
+        <v>0.7376359781434303</v>
       </c>
       <c r="G20">
-        <v>0.0007750982481540764</v>
+        <v>0.01047876976199813</v>
       </c>
       <c r="H20">
-        <v>0.02660851629946714</v>
+        <v>0.02506260554673601</v>
       </c>
       <c r="I20">
-        <v>0.01736751536251724</v>
+        <v>0.01522835205048256</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2498272206800252</v>
+        <v>0.2155386900240259</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1199729440646422</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06276005920283367</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7611906070974328</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.253579791770221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8333126650951215</v>
+      </c>
+      <c r="S20">
+        <v>2.033139276268287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.00182773623601</v>
+        <v>3.694850357777455</v>
       </c>
       <c r="C21">
-        <v>1.287437933781518</v>
+        <v>1.286646821417378</v>
       </c>
       <c r="D21">
-        <v>0.05539431488265478</v>
+        <v>0.07169438806401729</v>
       </c>
       <c r="E21">
-        <v>2.234415511474808</v>
+        <v>2.21501118150772</v>
       </c>
       <c r="F21">
-        <v>0.900294708046431</v>
+        <v>0.7441117272146158</v>
       </c>
       <c r="G21">
-        <v>0.0007707770022786775</v>
+        <v>0.07318114642410478</v>
       </c>
       <c r="H21">
-        <v>0.03426808770124046</v>
+        <v>0.03149841501093364</v>
       </c>
       <c r="I21">
-        <v>0.02214884411921414</v>
+        <v>0.0181550792166183</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2628527200666362</v>
+        <v>0.1983152039841762</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1078629731938641</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0645949466288549</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7624403336433261</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.506193264352703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8987129130716056</v>
+      </c>
+      <c r="S21">
+        <v>1.989281961253056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.298906812090308</v>
+        <v>3.890996323131333</v>
       </c>
       <c r="C22">
-        <v>1.375089723379858</v>
+        <v>1.325742262539961</v>
       </c>
       <c r="D22">
-        <v>0.05864798086095391</v>
+        <v>0.08181577969761378</v>
       </c>
       <c r="E22">
-        <v>2.399523543907733</v>
+        <v>2.374750267923091</v>
       </c>
       <c r="F22">
-        <v>0.9608180561010329</v>
+        <v>0.7417709000389721</v>
       </c>
       <c r="G22">
-        <v>0.0007680742796180523</v>
+        <v>0.1637517629833098</v>
       </c>
       <c r="H22">
-        <v>0.03923736045357318</v>
+        <v>0.03560468811616069</v>
       </c>
       <c r="I22">
-        <v>0.02523968032914947</v>
+        <v>0.01984121075632128</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2713340604381855</v>
+        <v>0.1860180012992529</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1001948820532395</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0651896817611366</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7650874216574977</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.664291788982808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9492207008106135</v>
+      </c>
+      <c r="S22">
+        <v>1.940055444564223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.145134178135606</v>
+        <v>3.803261941798098</v>
       </c>
       <c r="C23">
-        <v>1.325006308772913</v>
+        <v>1.310295667993785</v>
       </c>
       <c r="D23">
-        <v>0.05675297092618337</v>
+        <v>0.07526173726758856</v>
       </c>
       <c r="E23">
-        <v>2.311376861251972</v>
+        <v>2.289770819055306</v>
       </c>
       <c r="F23">
-        <v>0.93036752650751</v>
+        <v>0.7531662608322023</v>
       </c>
       <c r="G23">
-        <v>0.000769497521434733</v>
+        <v>0.09728357293133882</v>
       </c>
       <c r="H23">
-        <v>0.03656331575295768</v>
+        <v>0.03343879762875668</v>
       </c>
       <c r="I23">
-        <v>0.02333804398744288</v>
+        <v>0.01868844694892058</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2680447175195191</v>
+        <v>0.1961914601357648</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1054195090652001</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06645287975090142</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7618090396665878</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.586281415222629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9138573635273843</v>
+      </c>
+      <c r="S23">
+        <v>1.999854636532461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.555084826357984</v>
+        <v>3.389668769546063</v>
       </c>
       <c r="C24">
-        <v>1.141790982896168</v>
+        <v>1.207746014211693</v>
       </c>
       <c r="D24">
-        <v>0.04983347847899466</v>
+        <v>0.05697898096532583</v>
       </c>
       <c r="E24">
-        <v>1.979557595374544</v>
+        <v>1.96798781111606</v>
       </c>
       <c r="F24">
-        <v>0.8140187928841698</v>
+        <v>0.7468865033182794</v>
       </c>
       <c r="G24">
-        <v>0.000775009947661744</v>
+        <v>0.0104024001063534</v>
       </c>
       <c r="H24">
-        <v>0.02711562624600106</v>
+        <v>0.02554424840883129</v>
       </c>
       <c r="I24">
-        <v>0.01704715564244719</v>
+        <v>0.01478838691894513</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2543979878610045</v>
+        <v>0.2196188176462748</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1215724303293584</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06426228939593059</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7538980598671117</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.286316973550498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8251103690992636</v>
+      </c>
+      <c r="S24">
+        <v>2.06522778936727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.918534656475913</v>
+        <v>2.805001450437373</v>
       </c>
       <c r="C25">
-        <v>0.9460550248518018</v>
+        <v>1.000957200906953</v>
       </c>
       <c r="D25">
-        <v>0.04235471446440187</v>
+        <v>0.04696939198312577</v>
       </c>
       <c r="E25">
-        <v>1.625206763166787</v>
+        <v>1.619662495408704</v>
       </c>
       <c r="F25">
-        <v>0.6925267362209695</v>
+        <v>0.6461221554835603</v>
       </c>
       <c r="G25">
-        <v>0.0007811792337424897</v>
+        <v>0.004704057509757664</v>
       </c>
       <c r="H25">
-        <v>0.01820521829514088</v>
+        <v>0.01752008885788547</v>
       </c>
       <c r="I25">
-        <v>0.01131508182547947</v>
+        <v>0.01050215630577522</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2414023028196937</v>
+        <v>0.2147592882739104</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1292097143862811</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05057679807975646</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7483601796793664</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.97457812875399</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.794732002597442</v>
+      </c>
+      <c r="S25">
+        <v>1.819910677653439</v>
       </c>
     </row>
   </sheetData>
